--- a/biology/Zoologie/Bolitoglossa_colonnea/Bolitoglossa_colonnea.xlsx
+++ b/biology/Zoologie/Bolitoglossa_colonnea/Bolitoglossa_colonnea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bolitoglossa colonnea est une espèce d'urodèles de la famille des Plethodontidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bolitoglossa colonnea est une espèce d'urodèles de la famille des Plethodontidae.
 </t>
         </is>
       </c>
@@ -511,12 +523,14 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre :
 au Costa Rica, dans les provinces d'Alajuela, de Cartago, d'Heredia et du Limón ainsi que sur le versant Pacifique, dans le golfe Dulce et dans les environs de Las Cruces ;
 au Panama, dans la province de Bocas del Toro, la comarque Ngöbe-Buglé et sur le Cerro Campana.
-Elle est présente entre 40 et 1 245 m d'altitude[2].
+Elle est présente entre 40 et 1 245 m d'altitude.
 </t>
         </is>
       </c>
@@ -545,9 +559,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les mâles mesurent sans la queue jusqu'à 42 mm et les femelles jusqu'à 50 mm pour une longueur totale de 130 mm[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les mâles mesurent sans la queue jusqu'à 42 mm et les femelles jusqu'à 50 mm pour une longueur totale de 130 mm.
 </t>
         </is>
       </c>
@@ -576,7 +592,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(en) Dunn, 1924 :  New salamanders of the genus Oedipus with a synoptical key. Field Museum of Natural History Publication, Zoological Series, vol. 12, no 7, p. 95-100 (texte intégral).</t>
         </is>
